--- a/Juan Daniel Jimenez López/JuanDJLCU-4.xlsx
+++ b/Juan Daniel Jimenez López/JuanDJLCU-4.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonac\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2E6A53-776F-4996-B689-89F67CCE9C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FCCC82-EDF6-41B5-B978-8E947A35ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="CU_12" sheetId="1" r:id="rId1"/>
+    <sheet name="CU_13" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,9 +100,6 @@
     <t>Registro ventas</t>
   </si>
   <si>
-    <t>CU_14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Devoluciones </t>
   </si>
   <si>
@@ -574,6 +571,9 @@
       </rPr>
       <t xml:space="preserve"> El sistema calculara automaticamente el cambio que se debe entregar. </t>
     </r>
+  </si>
+  <si>
+    <t>CU_12</t>
   </si>
 </sst>
 </file>
@@ -1010,6 +1010,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,9 +1076,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,46 +1160,37 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2DE95E-636E-49E3-9C10-8B7C805942EE}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,12 +1796,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
@@ -1810,41 +1810,41 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:7" ht="15.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="31.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -1865,60 +1865,60 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="247.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="98.55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
+      <c r="A13" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1933,253 +1933,255 @@
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
     </row>
     <row r="16" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="28.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="15"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="16"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="15"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="16"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="17"/>
       <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
@@ -2196,8 +2198,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2209,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F73C15-3B91-4C87-B282-2F2D11ABD549}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2223,39 +2223,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="C2" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="C3" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="80"/>
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
@@ -2288,261 +2288,252 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="C7" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
     </row>
     <row r="8" spans="1:5" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="1:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
     </row>
     <row r="11" spans="1:5" ht="130.05000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
+      <c r="B11" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
     </row>
     <row r="12" spans="1:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
     </row>
     <row r="13" spans="1:5" ht="66.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
+      <c r="B13" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
     </row>
     <row r="14" spans="1:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
     </row>
     <row r="15" spans="1:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
     </row>
     <row r="18" spans="2:5" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
     </row>
     <row r="19" spans="2:5" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="32" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
     </row>
     <row r="35" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
     </row>
     <row r="42" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
     </row>
     <row r="43" spans="2:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E42"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B8:E8"/>
@@ -2553,6 +2544,15 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E42"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
